--- a/src/test/resources/files/dealers.xlsx
+++ b/src/test/resources/files/dealers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\labs\monoliths\fixed-assets\src\test\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB642BA-9C05-4226-B0D9-04C799B95A82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BFC80F-14D3-4660-A606-800067C8A359}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="808">
   <si>
     <t>titleTypes</t>
   </si>
@@ -2451,9 +2451,6 @@
   </si>
   <si>
     <t>4012759831264720</t>
-  </si>
-  <si>
-    <t>5434017219706290</t>
   </si>
 </sst>
 </file>
@@ -2463,9 +2460,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000000000000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="1"/>
     </font>
@@ -2487,14 +2491,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2809,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5881,14 +5888,14 @@
       <c r="D81" t="s">
         <v>643</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="2" t="s">
         <v>644</v>
       </c>
       <c r="F81" t="s">
         <v>645</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>808</v>
+      <c r="G81" s="1">
+        <v>5434017219706290</v>
       </c>
       <c r="H81" t="s">
         <v>646</v>
@@ -5907,7 +5914,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E81" r:id="rId1" xr:uid="{A42321B4-A276-400D-8EFA-83B2FB941E8E}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>